--- a/Sort-Alphabetically/words.xlsx
+++ b/Sort-Alphabetically/words.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -411,6 +411,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>අලස්</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>නව‍ශ්‍ය</t>
         </is>
       </c>
